--- a/exp1_2/audiogram2.xlsx
+++ b/exp1_2/audiogram2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axt275\Downloads\shapeofsound-main\exp1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axt275\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21A9A82-9C19-44DC-A9CF-E793D700678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17F64D-C22C-41EA-AAD4-DC4CBDD1D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D3678CB-7A2F-4E53-8123-452190F94964}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>carrier</t>
+    <t>carrier2</t>
   </si>
   <si>
-    <t>volume</t>
+    <t>volume2</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B25" s="2">
         <v>6.25E-2</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B26" s="2">
         <v>3.125E-2</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B27" s="2">
         <v>1.5625E-2</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B28" s="2">
         <v>7.8125E-3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B29" s="2">
         <v>3.90625E-3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B30" s="2">
         <v>1.953125E-3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B31" s="2">
         <v>9.765625E-4</v>

--- a/exp1_2/audiogram2.xlsx
+++ b/exp1_2/audiogram2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axt275\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adf\storage\a\t\axt275\Desktop\shapeofsound-main\exp1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17F64D-C22C-41EA-AAD4-DC4CBDD1D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7247A-7392-4477-ACF7-C8D1D265C092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D3678CB-7A2F-4E53-8123-452190F94964}"/>
+    <workbookView xWindow="3675" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{5D3678CB-7A2F-4E53-8123-452190F94964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>440</v>
       </c>
       <c r="B11" s="2">
-        <v>9.765625E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>1000</v>
       </c>
       <c r="B21" s="2">
-        <v>9.765625E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>700</v>
       </c>
       <c r="B31" s="2">
-        <v>9.765625E-4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
